--- a/Design/Normalisation.xlsx
+++ b/Design/Normalisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
   <si>
     <t>UNF</t>
   </si>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,9 +446,11 @@
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +464,10 @@
         <v>19</v>
       </c>
       <c r="E1" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,19 +481,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -497,232 +504,267 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
